--- a/src/main/resources/excelTemp/partSizeTemp.xlsx
+++ b/src/main/resources/excelTemp/partSizeTemp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12090"/>
+    <workbookView windowWidth="22860" windowHeight="13405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,11 +91,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +116,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -136,14 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,7 +156,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,6 +177,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -186,68 +240,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -264,6 +256,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +277,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -288,13 +294,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,25 +408,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,139 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,15 +503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -517,21 +514,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +551,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -580,6 +577,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,16 +618,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,15 +636,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,101 +657,98 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -766,6 +772,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -774,16 +783,16 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -791,7 +800,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1123,7 +1132,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.95" customHeight="1"/>
@@ -1211,8 +1220,8 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="5"/>
@@ -1235,21 +1244,21 @@
       <c r="J3" s="7">
         <v>30</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="12">
         <v>90</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" s="2" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1285,8 +1294,8 @@
       <c r="N4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" s="2" customFormat="1" customHeight="1" spans="1:14">
       <c r="A5" s="5"/>
@@ -1294,503 +1303,503 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
     </row>
     <row r="46" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
     </row>
     <row r="52" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
     </row>
     <row r="54" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
     </row>
     <row r="55" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
     </row>
     <row r="57" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
     </row>
     <row r="58" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
     </row>
     <row r="59" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
     </row>
     <row r="61" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
     </row>
     <row r="62" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
     </row>
     <row r="63" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
     </row>
     <row r="64" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
     </row>
     <row r="65" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
     </row>
     <row r="66" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
     </row>
     <row r="67" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
     </row>
     <row r="68" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
     </row>
     <row r="69" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
     </row>
     <row r="70" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
     </row>
     <row r="71" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
     </row>
     <row r="72" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
     </row>
     <row r="73" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
     </row>
     <row r="74" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
     </row>
     <row r="75" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
     </row>
     <row r="79" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
     </row>
     <row r="80" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
     </row>
     <row r="81" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
     </row>
     <row r="82" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
     </row>
     <row r="83" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
     </row>
     <row r="84" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
     </row>
     <row r="85" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
     </row>
     <row r="86" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
     </row>
     <row r="87" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
     </row>
     <row r="88" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
     </row>
     <row r="89" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
     </row>
     <row r="90" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
     </row>
     <row r="91" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
     </row>
     <row r="92" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
     </row>
     <row r="93" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
     </row>
     <row r="94" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
     </row>
     <row r="95" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
     </row>
     <row r="96" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
     </row>
     <row r="97" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
     </row>
     <row r="98" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
     </row>
     <row r="99" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
     </row>
     <row r="100" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
     </row>
     <row r="101" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
     </row>
     <row r="102" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
     </row>
     <row r="103" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
     </row>
     <row r="104" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
     </row>
     <row r="105" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
     </row>
     <row r="106" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
     </row>
     <row r="107" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
     </row>
     <row r="108" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
     </row>
     <row r="109" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
     </row>
     <row r="110" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
     </row>
     <row r="111" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
     </row>
     <row r="112" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
     </row>
     <row r="113" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
     </row>
     <row r="114" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
     </row>
     <row r="115" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
     </row>
     <row r="116" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
     </row>
     <row r="117" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
     </row>
     <row r="118" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
     </row>
     <row r="119" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
     </row>
     <row r="120" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
     </row>
     <row r="121" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
     </row>
     <row r="122" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
     </row>
     <row r="123" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
     </row>
     <row r="124" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
     </row>
     <row r="125" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
     </row>
     <row r="126" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
     </row>
     <row r="127" s="2" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
     </row>
     <row r="128" s="2" customFormat="1" customHeight="1"/>
   </sheetData>
